--- a/data/trans_orig/IP3102-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3102-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDA43AF7-7746-41F7-8D07-8005FEB4CD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B7F51E-C880-44B8-A699-DDEF688659C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D6912CA9-7E3E-4452-8E66-114ADE999099}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BE04FE9E-A136-42C1-8882-76B35FDD5C49}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,6 +70,66 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
     <t>3 o 4 veces a la semana</t>
   </si>
   <si>
@@ -100,34 +160,34 @@
     <t>39,55%</t>
   </si>
   <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -160,72 +220,198 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
     <t>36,34%</t>
   </si>
   <si>
@@ -253,28 +439,28 @@
     <t>40,96%</t>
   </si>
   <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
   </si>
   <si>
     <t>9,94%</t>
@@ -304,190 +490,55 @@
     <t>10,94%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>37,67%</t>
@@ -517,28 +568,28 @@
     <t>40,28%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
   </si>
   <si>
     <t>6,51%</t>
@@ -568,60 +619,60 @@
     <t>7,76%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2012 (Tasa respuesta: 91,52%)</t>
   </si>
   <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
     <t>24,57%</t>
   </si>
   <si>
@@ -649,28 +700,28 @@
     <t>29,96%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -697,55 +748,187 @@
     <t>2,48%</t>
   </si>
   <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>35,97%</t>
@@ -775,31 +958,31 @@
     <t>38,1%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
   </si>
   <si>
     <t>5,28%</t>
@@ -826,187 +1009,52 @@
     <t>7,87%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>31,01%</t>
@@ -1033,25 +1081,28 @@
     <t>33,29%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>3,86%</t>
@@ -1081,60 +1132,63 @@
     <t>4,71%</t>
   </si>
   <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
     <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2015 (Tasa respuesta: 92,52%)</t>
   </si>
   <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
     <t>18,82%</t>
   </si>
   <si>
@@ -1159,31 +1213,25 @@
     <t>24,28%</t>
   </si>
   <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -1207,52 +1255,163 @@
     <t>3,38%</t>
   </si>
   <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
   </si>
   <si>
     <t>24,71%</t>
@@ -1261,9 +1420,6 @@
     <t>20,62%</t>
   </si>
   <si>
-    <t>29,71%</t>
-  </si>
-  <si>
     <t>27,56%</t>
   </si>
   <si>
@@ -1273,40 +1429,31 @@
     <t>32,49%</t>
   </si>
   <si>
-    <t>26,11%</t>
-  </si>
-  <si>
     <t>22,88%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>9,21%</t>
@@ -1333,151 +1480,46 @@
     <t>10,14%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>24,8%</t>
@@ -1504,22 +1546,28 @@
     <t>26,66%</t>
   </si>
   <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>5,67%</t>
@@ -1547,54 +1595,6 @@
   </si>
   <si>
     <t>6,03%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA60A3B-0C24-40C7-8CD5-317AB78DA4C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD20139D-A72E-45DC-8E43-62E562ABE38A}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,10 +2104,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7">
-        <v>66587</v>
+        <v>35331</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2119,10 +2119,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I4" s="7">
-        <v>56060</v>
+        <v>43573</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2134,10 +2134,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="N4" s="7">
-        <v>122647</v>
+        <v>78904</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2206,10 +2206,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D6" s="7">
-        <v>2865</v>
+        <v>66587</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2221,10 +2221,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="I6" s="7">
-        <v>5727</v>
+        <v>56060</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2236,10 +2236,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="N6" s="7">
-        <v>8592</v>
+        <v>122647</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2257,10 +2257,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>35331</v>
+        <v>26592</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2272,10 +2272,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>43573</v>
+        <v>16215</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2287,10 +2287,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>78904</v>
+        <v>42808</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2308,10 +2308,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>26592</v>
+        <v>2865</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -2323,10 +2323,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>16215</v>
+        <v>5727</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -2338,10 +2338,10 @@
         <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>42808</v>
+        <v>8592</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -2412,10 +2412,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>101070</v>
+        <v>23298</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2427,10 +2427,10 @@
         <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>103650</v>
+        <v>22370</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -2442,10 +2442,10 @@
         <v>67</v>
       </c>
       <c r="M10" s="7">
-        <v>303</v>
+        <v>70</v>
       </c>
       <c r="N10" s="7">
-        <v>204720</v>
+        <v>45668</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -2463,49 +2463,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D11" s="7">
-        <v>51619</v>
+        <v>47129</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="7">
         <v>59</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="7">
-        <v>88</v>
-      </c>
       <c r="I11" s="7">
-        <v>59446</v>
+        <v>40524</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="N11" s="7">
-        <v>111065</v>
+        <v>87653</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,49 +2514,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="D12" s="7">
-        <v>27643</v>
+        <v>85563</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="I12" s="7">
-        <v>20254</v>
+        <v>87229</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
-        <v>71</v>
+        <v>259</v>
       </c>
       <c r="N12" s="7">
-        <v>47896</v>
+        <v>172791</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,49 +2565,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7">
-        <v>24786</v>
+        <v>46822</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I13" s="7">
-        <v>22111</v>
+        <v>37800</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="N13" s="7">
-        <v>46896</v>
+        <v>84621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,49 +2616,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7">
-        <v>72989</v>
+        <v>13236</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="I14" s="7">
-        <v>57142</v>
+        <v>15880</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="N14" s="7">
-        <v>130130</v>
+        <v>29115</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,10 +2667,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>417</v>
+        <v>327</v>
       </c>
       <c r="D15" s="7">
-        <v>278106</v>
+        <v>216047</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -2682,10 +2682,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="I15" s="7">
-        <v>262602</v>
+        <v>203802</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2697,10 +2697,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>807</v>
+        <v>629</v>
       </c>
       <c r="N15" s="7">
-        <v>540708</v>
+        <v>419849</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2714,55 +2714,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>85563</v>
+        <v>24786</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>87229</v>
+        <v>22111</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="N16" s="7">
-        <v>172791</v>
+        <v>46896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,49 +2771,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7">
-        <v>47129</v>
+        <v>51619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="I17" s="7">
-        <v>40524</v>
+        <v>59446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="N17" s="7">
-        <v>87653</v>
+        <v>111065</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,49 +2822,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D18" s="7">
-        <v>13236</v>
+        <v>101070</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="I18" s="7">
-        <v>15880</v>
+        <v>103650</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="N18" s="7">
-        <v>29115</v>
+        <v>204720</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,46 +2873,46 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="D19" s="7">
-        <v>23298</v>
+        <v>72989</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="I19" s="7">
-        <v>22370</v>
+        <v>57142</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="N19" s="7">
-        <v>45668</v>
+        <v>130130</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>140</v>
@@ -2924,10 +2924,10 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D20" s="7">
-        <v>46822</v>
+        <v>27643</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>141</v>
@@ -2939,10 +2939,10 @@
         <v>143</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I20" s="7">
-        <v>37800</v>
+        <v>20254</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>144</v>
@@ -2954,10 +2954,10 @@
         <v>146</v>
       </c>
       <c r="M20" s="7">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="N20" s="7">
-        <v>84621</v>
+        <v>47896</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>147</v>
@@ -2975,10 +2975,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>327</v>
+        <v>417</v>
       </c>
       <c r="D21" s="7">
-        <v>216047</v>
+        <v>278106</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2990,10 +2990,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="I21" s="7">
-        <v>203802</v>
+        <v>262602</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -3005,10 +3005,10 @@
         <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>629</v>
+        <v>807</v>
       </c>
       <c r="N21" s="7">
-        <v>419849</v>
+        <v>540708</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -3028,10 +3028,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>380</v>
+        <v>128</v>
       </c>
       <c r="D22" s="7">
-        <v>253220</v>
+        <v>83414</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>150</v>
@@ -3043,10 +3043,10 @@
         <v>152</v>
       </c>
       <c r="H22" s="7">
-        <v>364</v>
+        <v>138</v>
       </c>
       <c r="I22" s="7">
-        <v>246939</v>
+        <v>88053</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>153</v>
@@ -3058,10 +3058,10 @@
         <v>155</v>
       </c>
       <c r="M22" s="7">
-        <v>744</v>
+        <v>266</v>
       </c>
       <c r="N22" s="7">
-        <v>500158</v>
+        <v>171468</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>156</v>
@@ -3115,7 +3115,7 @@
         <v>293864</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>165</v>
@@ -3130,10 +3130,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="D24" s="7">
-        <v>43743</v>
+        <v>253220</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>167</v>
@@ -3145,10 +3145,10 @@
         <v>169</v>
       </c>
       <c r="H24" s="7">
-        <v>63</v>
+        <v>364</v>
       </c>
       <c r="I24" s="7">
-        <v>41861</v>
+        <v>246939</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>170</v>
@@ -3160,10 +3160,10 @@
         <v>172</v>
       </c>
       <c r="M24" s="7">
-        <v>128</v>
+        <v>744</v>
       </c>
       <c r="N24" s="7">
-        <v>85604</v>
+        <v>500158</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>173</v>
@@ -3181,10 +3181,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="D25" s="7">
-        <v>83414</v>
+        <v>146403</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>176</v>
@@ -3196,34 +3196,34 @@
         <v>178</v>
       </c>
       <c r="H25" s="7">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="I25" s="7">
-        <v>88053</v>
+        <v>111157</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>383</v>
+      </c>
+      <c r="N25" s="7">
+        <v>257559</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M25" s="7">
-        <v>266</v>
-      </c>
-      <c r="N25" s="7">
-        <v>171468</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,40 +3232,40 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="D26" s="7">
-        <v>146403</v>
+        <v>43743</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>63</v>
+      </c>
+      <c r="I26" s="7">
+        <v>41861</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H26" s="7">
-        <v>163</v>
-      </c>
-      <c r="I26" s="7">
-        <v>111157</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>189</v>
       </c>
       <c r="M26" s="7">
-        <v>383</v>
+        <v>128</v>
       </c>
       <c r="N26" s="7">
-        <v>257559</v>
+        <v>85604</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>190</v>
@@ -3344,7 +3344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02809E7-2B45-4D7A-B848-F1274D744294}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4325275A-076A-457C-9B68-72633B035058}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3462,10 +3462,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="D4" s="7">
-        <v>44456</v>
+        <v>79121</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>194</v>
@@ -3477,10 +3477,10 @@
         <v>196</v>
       </c>
       <c r="H4" s="7">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="I4" s="7">
-        <v>47491</v>
+        <v>70811</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>197</v>
@@ -3492,10 +3492,10 @@
         <v>199</v>
       </c>
       <c r="M4" s="7">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="N4" s="7">
-        <v>91947</v>
+        <v>149932</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>200</v>
@@ -3549,7 +3549,7 @@
         <v>73385</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>209</v>
@@ -3564,49 +3564,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D6" s="7">
-        <v>2913</v>
+        <v>44456</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="I6" s="7">
-        <v>1295</v>
+        <v>47491</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="N6" s="7">
-        <v>4208</v>
+        <v>91947</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,46 +3615,46 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>79121</v>
+        <v>13869</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>70811</v>
+        <v>18134</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>149932</v>
+        <v>32004</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>227</v>
@@ -3666,46 +3666,46 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>13869</v>
+        <v>2913</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1295</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="7">
-        <v>27</v>
-      </c>
-      <c r="I8" s="7">
-        <v>18134</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>6</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4208</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M8" s="7">
-        <v>47</v>
-      </c>
-      <c r="N8" s="7">
-        <v>32004</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>235</v>
@@ -3770,10 +3770,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="D10" s="7">
-        <v>95963</v>
+        <v>56542</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>236</v>
@@ -3785,10 +3785,10 @@
         <v>238</v>
       </c>
       <c r="H10" s="7">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="I10" s="7">
-        <v>84422</v>
+        <v>63086</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>239</v>
@@ -3800,19 +3800,19 @@
         <v>241</v>
       </c>
       <c r="M10" s="7">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="N10" s="7">
-        <v>180385</v>
+        <v>119628</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,49 +3821,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>34903</v>
+        <v>39828</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>53</v>
+      </c>
+      <c r="I11" s="7">
+        <v>37471</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H11" s="7">
-        <v>58</v>
-      </c>
-      <c r="I11" s="7">
-        <v>41449</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>108</v>
+      </c>
+      <c r="N11" s="7">
+        <v>77300</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="M11" s="7">
-        <v>109</v>
-      </c>
-      <c r="N11" s="7">
-        <v>76352</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,25 +3872,25 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D12" s="7">
-        <v>14076</v>
+        <v>72162</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>255</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="I12" s="7">
-        <v>16959</v>
+        <v>74677</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>256</v>
@@ -3902,10 +3902,10 @@
         <v>258</v>
       </c>
       <c r="M12" s="7">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="N12" s="7">
-        <v>31035</v>
+        <v>146839</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>259</v>
@@ -3923,10 +3923,10 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D13" s="7">
-        <v>44381</v>
+        <v>59746</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>262</v>
@@ -3938,10 +3938,10 @@
         <v>264</v>
       </c>
       <c r="H13" s="7">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>52729</v>
+        <v>48441</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>265</v>
@@ -3953,10 +3953,10 @@
         <v>267</v>
       </c>
       <c r="M13" s="7">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="N13" s="7">
-        <v>97110</v>
+        <v>108187</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>268</v>
@@ -3974,10 +3974,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>77469</v>
+        <v>9439</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>271</v>
@@ -3989,10 +3989,10 @@
         <v>273</v>
       </c>
       <c r="H14" s="7">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>58321</v>
+        <v>5797</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>274</v>
@@ -4004,10 +4004,10 @@
         <v>276</v>
       </c>
       <c r="M14" s="7">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="N14" s="7">
-        <v>135791</v>
+        <v>15236</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>277</v>
@@ -4025,10 +4025,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="D15" s="7">
-        <v>266792</v>
+        <v>237717</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -4040,10 +4040,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="I15" s="7">
-        <v>253880</v>
+        <v>229472</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -4055,10 +4055,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>754</v>
+        <v>650</v>
       </c>
       <c r="N15" s="7">
-        <v>520672</v>
+        <v>467189</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -4072,16 +4072,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="D16" s="7">
-        <v>72162</v>
+        <v>44381</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>280</v>
@@ -4093,10 +4093,10 @@
         <v>282</v>
       </c>
       <c r="H16" s="7">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="I16" s="7">
-        <v>74677</v>
+        <v>52729</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>283</v>
@@ -4108,10 +4108,10 @@
         <v>285</v>
       </c>
       <c r="M16" s="7">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="N16" s="7">
-        <v>146839</v>
+        <v>97110</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>286</v>
@@ -4129,10 +4129,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7">
-        <v>39828</v>
+        <v>34903</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>289</v>
@@ -4144,13 +4144,13 @@
         <v>291</v>
       </c>
       <c r="H17" s="7">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I17" s="7">
-        <v>37471</v>
+        <v>41449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>292</v>
@@ -4159,10 +4159,10 @@
         <v>293</v>
       </c>
       <c r="M17" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N17" s="7">
-        <v>77300</v>
+        <v>76352</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>294</v>
@@ -4180,10 +4180,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="D18" s="7">
-        <v>9439</v>
+        <v>95963</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>297</v>
@@ -4195,10 +4195,10 @@
         <v>299</v>
       </c>
       <c r="H18" s="7">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="I18" s="7">
-        <v>5797</v>
+        <v>84422</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>300</v>
@@ -4210,10 +4210,10 @@
         <v>302</v>
       </c>
       <c r="M18" s="7">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="N18" s="7">
-        <v>15236</v>
+        <v>180385</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>303</v>
@@ -4231,10 +4231,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="D19" s="7">
-        <v>56542</v>
+        <v>77469</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>306</v>
@@ -4246,10 +4246,10 @@
         <v>308</v>
       </c>
       <c r="H19" s="7">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I19" s="7">
-        <v>63086</v>
+        <v>58321</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>309</v>
@@ -4261,19 +4261,19 @@
         <v>311</v>
       </c>
       <c r="M19" s="7">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="N19" s="7">
-        <v>119628</v>
+        <v>135791</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,25 +4282,25 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D20" s="7">
-        <v>59746</v>
+        <v>14076</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>316</v>
       </c>
       <c r="H20" s="7">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I20" s="7">
-        <v>48441</v>
+        <v>16959</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>317</v>
@@ -4312,10 +4312,10 @@
         <v>319</v>
       </c>
       <c r="M20" s="7">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="N20" s="7">
-        <v>108187</v>
+        <v>31035</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>320</v>
@@ -4333,10 +4333,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="D21" s="7">
-        <v>237717</v>
+        <v>266792</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -4348,10 +4348,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="I21" s="7">
-        <v>229472</v>
+        <v>253880</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -4363,10 +4363,10 @@
         <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>650</v>
+        <v>754</v>
       </c>
       <c r="N21" s="7">
-        <v>467189</v>
+        <v>520672</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -4386,10 +4386,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>311</v>
+        <v>247</v>
       </c>
       <c r="D22" s="7">
-        <v>212581</v>
+        <v>180044</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>323</v>
@@ -4401,10 +4401,10 @@
         <v>325</v>
       </c>
       <c r="H22" s="7">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="I22" s="7">
-        <v>206590</v>
+        <v>186625</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>326</v>
@@ -4413,22 +4413,22 @@
         <v>327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
-        <v>606</v>
+        <v>519</v>
       </c>
       <c r="N22" s="7">
-        <v>419171</v>
+        <v>366669</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,10 +4443,10 @@
         <v>115283</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>206</v>
@@ -4458,13 +4458,13 @@
         <v>111754</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M23" s="7">
         <v>327</v>
@@ -4473,13 +4473,13 @@
         <v>227037</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,40 +4488,40 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="D24" s="7">
-        <v>26428</v>
+        <v>212581</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H24" s="7">
-        <v>36</v>
+        <v>295</v>
       </c>
       <c r="I24" s="7">
-        <v>24051</v>
+        <v>206590</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="M24" s="7">
-        <v>75</v>
+        <v>606</v>
       </c>
       <c r="N24" s="7">
-        <v>50479</v>
+        <v>419171</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>344</v>
@@ -4539,10 +4539,10 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="D25" s="7">
-        <v>180044</v>
+        <v>151084</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>347</v>
@@ -4554,34 +4554,34 @@
         <v>349</v>
       </c>
       <c r="H25" s="7">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="I25" s="7">
-        <v>186625</v>
+        <v>124897</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>350</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>394</v>
+      </c>
+      <c r="N25" s="7">
+        <v>275981</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="M25" s="7">
-        <v>519</v>
-      </c>
-      <c r="N25" s="7">
-        <v>366669</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,40 +4590,40 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="D26" s="7">
-        <v>151084</v>
+        <v>26428</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>36</v>
+      </c>
+      <c r="I26" s="7">
+        <v>24051</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="H26" s="7">
-        <v>177</v>
-      </c>
-      <c r="I26" s="7">
-        <v>124897</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>360</v>
       </c>
       <c r="M26" s="7">
-        <v>394</v>
+        <v>75</v>
       </c>
       <c r="N26" s="7">
-        <v>275981</v>
+        <v>50479</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>361</v>
@@ -4702,7 +4702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DE0E1F-3D54-4E78-A74E-BA0E902F763E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FE3534-F003-4CB4-9D01-6A12E3BFC97D}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4820,49 +4820,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="D4" s="7">
-        <v>39832</v>
+        <v>74376</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H4" s="7">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="I4" s="7">
-        <v>26827</v>
+        <v>73680</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M4" s="7">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="N4" s="7">
-        <v>66658</v>
+        <v>148056</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4877,13 @@
         <v>35608</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H5" s="7">
         <v>58</v>
@@ -4892,13 +4892,13 @@
         <v>35092</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M5" s="7">
         <v>111</v>
@@ -4907,13 +4907,13 @@
         <v>70700</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,49 +4922,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D6" s="7">
-        <v>2600</v>
+        <v>39832</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>383</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>3797</v>
+        <v>26827</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="N6" s="7">
-        <v>6397</v>
+        <v>66658</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,40 +4973,40 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>74376</v>
+        <v>14546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>391</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>73680</v>
+        <v>15095</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>393</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>394</v>
       </c>
       <c r="M7" s="7">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c r="N7" s="7">
-        <v>148056</v>
+        <v>29641</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>395</v>
@@ -5024,40 +5024,40 @@
         <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>14546</v>
+        <v>2600</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>398</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>15095</v>
+        <v>3797</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>400</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>401</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="M8" s="7">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>29641</v>
+        <v>6397</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>402</v>
@@ -5128,10 +5128,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D10" s="7">
-        <v>68340</v>
+        <v>75603</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>405</v>
@@ -5143,34 +5143,34 @@
         <v>407</v>
       </c>
       <c r="H10" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I10" s="7">
-        <v>73247</v>
+        <v>66556</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>408</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>214</v>
+      </c>
+      <c r="N10" s="7">
+        <v>142158</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="M10" s="7">
-        <v>197</v>
-      </c>
-      <c r="N10" s="7">
-        <v>141587</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,49 +5179,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D11" s="7">
-        <v>59750</v>
+        <v>62126</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>88</v>
+      </c>
+      <c r="I11" s="7">
+        <v>56636</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H11" s="7">
-        <v>76</v>
-      </c>
-      <c r="I11" s="7">
-        <v>53954</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>177</v>
+      </c>
+      <c r="N11" s="7">
+        <v>118762</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="M11" s="7">
-        <v>155</v>
-      </c>
-      <c r="N11" s="7">
-        <v>113704</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,49 +5230,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>25481</v>
+        <v>63683</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>92</v>
+      </c>
+      <c r="I12" s="7">
+        <v>62159</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="H12" s="7">
-        <v>26</v>
-      </c>
-      <c r="I12" s="7">
-        <v>17519</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>183</v>
+      </c>
+      <c r="N12" s="7">
+        <v>125842</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="M12" s="7">
-        <v>61</v>
-      </c>
-      <c r="N12" s="7">
-        <v>43000</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,49 +5281,49 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>74531</v>
+        <v>36722</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>61</v>
+      </c>
+      <c r="I13" s="7">
+        <v>40537</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="H13" s="7">
-        <v>91</v>
-      </c>
-      <c r="I13" s="7">
-        <v>66277</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>115</v>
+      </c>
+      <c r="N13" s="7">
+        <v>77259</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="M13" s="7">
-        <v>191</v>
-      </c>
-      <c r="N13" s="7">
-        <v>140808</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,49 +5332,49 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>48454</v>
+        <v>11205</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="H14" s="7">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>54736</v>
+        <v>6729</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>441</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>442</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>442</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="N14" s="7">
-        <v>103190</v>
+        <v>17933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D15" s="7">
-        <v>276555</v>
+        <v>249339</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5398,10 +5398,10 @@
         <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="I15" s="7">
-        <v>265734</v>
+        <v>232616</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5413,10 +5413,10 @@
         <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="N15" s="7">
-        <v>542289</v>
+        <v>481955</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5430,55 +5430,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>100</v>
+      </c>
+      <c r="D16" s="7">
+        <v>74531</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H16" s="7">
         <v>91</v>
       </c>
-      <c r="D16" s="7">
-        <v>63683</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>66277</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M16" s="7">
+        <v>191</v>
+      </c>
+      <c r="N16" s="7">
+        <v>140808</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="H16" s="7">
-        <v>92</v>
-      </c>
-      <c r="I16" s="7">
-        <v>62159</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="M16" s="7">
-        <v>183</v>
-      </c>
-      <c r="N16" s="7">
-        <v>125842</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>452</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>453</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,49 +5487,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7">
-        <v>62126</v>
+        <v>59750</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H17" s="7">
+        <v>76</v>
+      </c>
+      <c r="I17" s="7">
+        <v>53954</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>155</v>
+      </c>
+      <c r="N17" s="7">
+        <v>113704</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H17" s="7">
-        <v>88</v>
-      </c>
-      <c r="I17" s="7">
-        <v>56636</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="M17" s="7">
-        <v>177</v>
-      </c>
-      <c r="N17" s="7">
-        <v>118762</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,49 +5538,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D18" s="7">
-        <v>11205</v>
+        <v>68340</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H18" s="7">
+        <v>103</v>
+      </c>
+      <c r="I18" s="7">
+        <v>73247</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="H18" s="7">
-        <v>11</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6729</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>197</v>
+      </c>
+      <c r="N18" s="7">
+        <v>141587</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="M18" s="7">
-        <v>29</v>
-      </c>
-      <c r="N18" s="7">
-        <v>17933</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,10 +5589,10 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7">
-        <v>75603</v>
+        <v>48454</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>465</v>
@@ -5601,31 +5601,31 @@
         <v>466</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H19" s="7">
+        <v>76</v>
+      </c>
+      <c r="I19" s="7">
+        <v>54736</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="H19" s="7">
-        <v>104</v>
-      </c>
-      <c r="I19" s="7">
-        <v>66556</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>142</v>
+      </c>
+      <c r="N19" s="7">
+        <v>103190</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="M19" s="7">
-        <v>214</v>
-      </c>
-      <c r="N19" s="7">
-        <v>142158</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>470</v>
@@ -5640,10 +5640,10 @@
         <v>50</v>
       </c>
       <c r="C20" s="7">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D20" s="7">
-        <v>36722</v>
+        <v>25481</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>472</v>
@@ -5652,28 +5652,28 @@
         <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H20" s="7">
+        <v>26</v>
+      </c>
+      <c r="I20" s="7">
+        <v>17519</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="H20" s="7">
+      <c r="K20" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="M20" s="7">
         <v>61</v>
       </c>
-      <c r="I20" s="7">
-        <v>40537</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="M20" s="7">
-        <v>115</v>
-      </c>
       <c r="N20" s="7">
-        <v>77259</v>
+        <v>43000</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>477</v>
@@ -5691,10 +5691,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="D21" s="7">
-        <v>249339</v>
+        <v>276555</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -5706,10 +5706,10 @@
         <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="I21" s="7">
-        <v>232616</v>
+        <v>265734</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5721,10 +5721,10 @@
         <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="N21" s="7">
-        <v>481955</v>
+        <v>542289</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5744,40 +5744,40 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="D22" s="7">
-        <v>171854</v>
+        <v>224509</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>480</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>315</v>
+      </c>
+      <c r="I22" s="7">
+        <v>206513</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="H22" s="7">
-        <v>238</v>
-      </c>
-      <c r="I22" s="7">
-        <v>162233</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>484</v>
       </c>
       <c r="M22" s="7">
-        <v>483</v>
+        <v>638</v>
       </c>
       <c r="N22" s="7">
-        <v>334087</v>
+        <v>431022</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>485</v>
@@ -5804,7 +5804,7 @@
         <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>489</v>
@@ -5819,7 +5819,7 @@
         <v>490</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>491</v>
@@ -5837,7 +5837,7 @@
         <v>493</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,10 +5846,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="D24" s="7">
-        <v>39285</v>
+        <v>171854</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>494</v>
@@ -5861,34 +5861,34 @@
         <v>496</v>
       </c>
       <c r="H24" s="7">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="I24" s="7">
-        <v>28044</v>
+        <v>162233</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>497</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>483</v>
+      </c>
+      <c r="N24" s="7">
+        <v>334087</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="M24" s="7">
-        <v>100</v>
-      </c>
-      <c r="N24" s="7">
-        <v>67330</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>501</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,25 +5897,25 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>323</v>
+        <v>142</v>
       </c>
       <c r="D25" s="7">
-        <v>224509</v>
+        <v>99721</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>504</v>
       </c>
       <c r="H25" s="7">
-        <v>315</v>
+        <v>161</v>
       </c>
       <c r="I25" s="7">
-        <v>206513</v>
+        <v>110368</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>505</v>
@@ -5927,10 +5927,10 @@
         <v>507</v>
       </c>
       <c r="M25" s="7">
-        <v>638</v>
+        <v>303</v>
       </c>
       <c r="N25" s="7">
-        <v>431022</v>
+        <v>210089</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>508</v>
@@ -5939,7 +5939,7 @@
         <v>509</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>510</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,49 +5948,49 @@
         <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="D26" s="7">
-        <v>99721</v>
+        <v>39285</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>43</v>
+      </c>
+      <c r="I26" s="7">
+        <v>28044</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="H26" s="7">
-        <v>161</v>
-      </c>
-      <c r="I26" s="7">
-        <v>110368</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>100</v>
+      </c>
+      <c r="N26" s="7">
+        <v>67330</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="M26" s="7">
-        <v>303</v>
-      </c>
-      <c r="N26" s="7">
-        <v>210089</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP3102-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3102-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF7B0230-2066-4742-8CB5-8C199B80AD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71973133-5D36-49C0-AD5B-2A0C7DBA8E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57ECD3A4-3E11-4543-B25D-C745A368ECFB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{29317627-D6A5-4E80-8894-4A4FD17322C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="646">
   <si>
     <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2007 (Tasa respuesta: 93,2%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,94%</t>
+    <t>5,33%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,1837 +91,1891 @@
     <t>0,48%</t>
   </si>
   <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2012 (Tasa respuesta: 91,52%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2016 (Tasa respuesta: 92,52%)</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>3 o 4 veces a la semana</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2012 (Tasa respuesta: 91,52%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2015 (Tasa respuesta: 92,52%)</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>32,4%</t>
   </si>
   <si>
+    <t>29,52%</t>
+  </si>
+  <si>
     <t>35,51%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
   </si>
 </sst>
 </file>
@@ -2333,7 +2387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE847E9-A929-47D7-9055-6D0B93BC2EE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CFE86C-3F71-439B-9ACE-5C1B25E5BD14}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2676,13 +2730,13 @@
         <v>23594</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -2694,10 +2748,10 @@
         <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2766,13 @@
         <v>76991</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>101</v>
@@ -2727,13 +2781,13 @@
         <v>66669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>217</v>
@@ -2742,18 +2796,18 @@
         <v>143660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2765,13 +2819,13 @@
         <v>8277</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2780,13 +2834,13 @@
         <v>13011</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -2795,13 +2849,13 @@
         <v>21288</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2870,13 @@
         <v>47431</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -2831,13 +2885,13 @@
         <v>36006</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>125</v>
@@ -2846,13 +2900,13 @@
         <v>83437</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2921,13 @@
         <v>104750</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>147</v>
@@ -2882,13 +2936,13 @@
         <v>99429</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>305</v>
@@ -2897,13 +2951,13 @@
         <v>204178</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2972,13 @@
         <v>60614</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>99</v>
@@ -2933,13 +2987,13 @@
         <v>66365</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
@@ -2948,13 +3002,13 @@
         <v>126979</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +3023,13 @@
         <v>30635</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -2984,13 +3038,13 @@
         <v>37087</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -2999,13 +3053,13 @@
         <v>67722</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3074,13 @@
         <v>251707</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>377</v>
@@ -3035,13 +3089,13 @@
         <v>251898</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>756</v>
@@ -3050,18 +3104,18 @@
         <v>503605</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3073,13 +3127,13 @@
         <v>13864</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -3088,13 +3142,13 @@
         <v>13467</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3103,13 +3157,13 @@
         <v>27331</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3178,13 @@
         <v>38081</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -3139,13 +3193,13 @@
         <v>29731</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -3154,13 +3208,13 @@
         <v>67811</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3229,13 @@
         <v>48291</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>78</v>
@@ -3190,13 +3244,13 @@
         <v>52327</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>151</v>
@@ -3205,13 +3259,13 @@
         <v>100618</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3280,13 @@
         <v>25827</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -3241,13 +3295,13 @@
         <v>16633</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -3256,13 +3310,13 @@
         <v>42459</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3331,13 @@
         <v>12539</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -3292,13 +3346,13 @@
         <v>13195</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -3307,13 +3361,13 @@
         <v>25734</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3382,13 @@
         <v>138601</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>188</v>
@@ -3343,13 +3397,13 @@
         <v>125353</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>396</v>
@@ -3358,18 +3412,18 @@
         <v>263953</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3381,13 +3435,13 @@
         <v>20917</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -3567,10 +3621,10 @@
         <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3639,13 @@
         <v>17755</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -3600,13 +3654,13 @@
         <v>14177</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>50</v>
@@ -3615,13 +3669,13 @@
         <v>31932</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3690,13 @@
         <v>204922</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>284</v>
@@ -3651,13 +3705,13 @@
         <v>192513</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -3666,13 +3720,13 @@
         <v>397435</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3743,13 @@
         <v>43743</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>63</v>
@@ -3704,13 +3758,13 @@
         <v>41861</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>128</v>
@@ -3719,13 +3773,13 @@
         <v>85604</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3794,13 @@
         <v>146403</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>163</v>
@@ -3755,13 +3809,13 @@
         <v>111157</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>383</v>
@@ -3770,13 +3824,13 @@
         <v>257559</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3845,13 @@
         <v>253220</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>364</v>
@@ -3806,13 +3860,13 @@
         <v>246939</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>744</v>
@@ -3821,13 +3875,13 @@
         <v>500158</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3896,13 @@
         <v>145441</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>222</v>
@@ -3857,13 +3911,13 @@
         <v>148424</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>440</v>
@@ -3872,13 +3926,13 @@
         <v>293864</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3998,13 @@
         <v>672221</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>950</v>
@@ -3959,13 +4013,13 @@
         <v>636433</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>1961</v>
@@ -3974,13 +4028,13 @@
         <v>1308653</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +4059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D385CB42-F464-411F-9CB5-A90161308CAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F68AC11-76A3-48D0-96D2-799B7DB5878A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4201,7 +4255,7 @@
         <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -4210,13 +4264,13 @@
         <v>15498</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,10 +4303,10 @@
         <v>257</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M6" s="7">
         <v>60</v>
@@ -4261,13 +4315,13 @@
         <v>39898</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4336,13 @@
         <v>16455</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -4384,13 +4438,13 @@
         <v>87737</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>141</v>
@@ -4399,13 +4453,13 @@
         <v>92521</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>267</v>
@@ -4414,18 +4468,18 @@
         <v>180258</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4524,7 +4578,7 @@
         <v>296</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>297</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4593,13 @@
         <v>83894</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H12" s="7">
         <v>114</v>
@@ -4554,13 +4608,13 @@
         <v>79482</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M12" s="7">
         <v>233</v>
@@ -4569,13 +4623,13 @@
         <v>163376</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4644,13 @@
         <v>56050</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -4605,13 +4659,13 @@
         <v>40713</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -4620,13 +4674,13 @@
         <v>96763</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>24</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4695,13 @@
         <v>74965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>104</v>
@@ -4656,13 +4710,13 @@
         <v>70329</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M14" s="7">
         <v>204</v>
@@ -4671,13 +4725,13 @@
         <v>145294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4746,13 @@
         <v>266070</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>339</v>
@@ -4707,13 +4761,13 @@
         <v>235546</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>709</v>
@@ -4722,18 +4776,18 @@
         <v>501616</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4745,13 +4799,13 @@
         <v>8794</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -4760,13 +4814,13 @@
         <v>6028</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4775,13 +4829,13 @@
         <v>14822</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4850,13 @@
         <v>48698</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -4811,13 +4865,13 @@
         <v>35881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M17" s="7">
         <v>121</v>
@@ -4826,13 +4880,13 @@
         <v>84579</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4901,13 @@
         <v>41632</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H18" s="7">
         <v>69</v>
@@ -4862,13 +4916,13 @@
         <v>49232</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -4877,13 +4931,13 @@
         <v>90864</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>44</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4952,13 @@
         <v>19300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -4913,13 +4967,13 @@
         <v>26177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -4928,13 +4982,13 @@
         <v>45477</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +5003,13 @@
         <v>37517</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -4964,13 +5018,13 @@
         <v>39117</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>47</v>
+        <v>364</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -4979,13 +5033,13 @@
         <v>76634</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5054,13 @@
         <v>155941</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>222</v>
@@ -5015,13 +5069,13 @@
         <v>156434</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>446</v>
@@ -5030,18 +5084,18 @@
         <v>312375</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5053,13 +5107,13 @@
         <v>10174</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -5068,13 +5122,13 @@
         <v>14133</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -5083,13 +5137,13 @@
         <v>24307</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5158,13 @@
         <v>52038</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H23" s="7">
         <v>53</v>
@@ -5119,13 +5173,13 @@
         <v>37393</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>295</v>
+        <v>380</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M23" s="7">
         <v>130</v>
@@ -5134,13 +5188,13 @@
         <v>89431</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5209,13 @@
         <v>68439</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="H24" s="7">
         <v>80</v>
@@ -5170,13 +5224,13 @@
         <v>56594</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M24" s="7">
         <v>182</v>
@@ -5185,13 +5239,13 @@
         <v>125033</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5260,13 @@
         <v>23478</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -5221,13 +5275,13 @@
         <v>27320</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -5236,13 +5290,13 @@
         <v>50798</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>233</v>
+        <v>400</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5311,13 @@
         <v>21543</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="H26" s="7">
         <v>48</v>
@@ -5272,13 +5326,13 @@
         <v>33975</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="M26" s="7">
         <v>79</v>
@@ -5287,13 +5341,13 @@
         <v>55519</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5362,13 @@
         <v>175673</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>240</v>
@@ -5323,13 +5377,13 @@
         <v>169415</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>499</v>
@@ -5338,13 +5392,13 @@
         <v>345088</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5415,13 @@
         <v>26428</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -5376,13 +5430,13 @@
         <v>24051</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>13</v>
+        <v>415</v>
       </c>
       <c r="M28" s="7">
         <v>75</v>
@@ -5391,13 +5445,13 @@
         <v>50479</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5466,13 @@
         <v>151084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="H29" s="7">
         <v>177</v>
@@ -5427,13 +5481,13 @@
         <v>124897</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>383</v>
       </c>
       <c r="M29" s="7">
         <v>394</v>
@@ -5442,13 +5496,13 @@
         <v>275981</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>227</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5517,13 @@
         <v>212581</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="H30" s="7">
         <v>295</v>
@@ -5478,13 +5532,13 @@
         <v>206590</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="M30" s="7">
         <v>606</v>
@@ -5493,13 +5547,13 @@
         <v>419171</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>305</v>
+        <v>434</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5568,13 @@
         <v>115283</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="H31" s="7">
         <v>162</v>
@@ -5529,28 +5583,28 @@
         <v>111754</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="M31" s="7">
         <v>327</v>
       </c>
       <c r="N31" s="7">
-        <v>227036</v>
+        <v>227037</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5619,13 @@
         <v>180044</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>430</v>
+        <v>178</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="H32" s="7">
         <v>272</v>
@@ -5580,13 +5634,13 @@
         <v>186625</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>184</v>
+        <v>447</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="M32" s="7">
         <v>519</v>
@@ -5595,13 +5649,13 @@
         <v>366669</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>262</v>
+        <v>449</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5670,13 @@
         <v>685420</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>942</v>
@@ -5631,28 +5685,28 @@
         <v>653916</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>1921</v>
       </c>
       <c r="N33" s="7">
-        <v>1339336</v>
+        <v>1339337</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,7 +5731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A8BC39-31AD-4F48-BA1E-F00A7FDFDADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1556041-9650-4AF8-BECB-A289EF6DACDB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5694,7 +5748,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5807,7 +5861,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5816,13 +5870,13 @@
         <v>1344</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5831,13 +5885,13 @@
         <v>1344</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5906,13 @@
         <v>3991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -5867,13 +5921,13 @@
         <v>5093</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5882,13 +5936,13 @@
         <v>9084</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,13 +5957,13 @@
         <v>19545</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -5918,13 +5972,13 @@
         <v>13564</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>452</v>
+        <v>162</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>454</v>
+        <v>164</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -5933,13 +5987,13 @@
         <v>33109</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,13 +6008,13 @@
         <v>10350</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5969,13 +6023,13 @@
         <v>14577</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -5984,13 +6038,13 @@
         <v>24927</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,13 +6059,13 @@
         <v>44726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="H8" s="7">
         <v>81</v>
@@ -6020,13 +6074,13 @@
         <v>51413</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="M8" s="7">
         <v>149</v>
@@ -6035,13 +6089,13 @@
         <v>96139</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,16 +6107,16 @@
         <v>119</v>
       </c>
       <c r="D9" s="7">
-        <v>78612</v>
+        <v>78611</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>138</v>
@@ -6071,13 +6125,13 @@
         <v>85991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>257</v>
@@ -6086,18 +6140,18 @@
         <v>164602</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6109,13 +6163,13 @@
         <v>8662</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>490</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -6124,13 +6178,13 @@
         <v>6040</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -6139,13 +6193,13 @@
         <v>14701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>494</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6214,13 @@
         <v>34239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>348</v>
+        <v>498</v>
       </c>
       <c r="H11" s="7">
         <v>52</v>
@@ -6175,13 +6229,13 @@
         <v>33428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -6190,13 +6244,13 @@
         <v>67667</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6265,13 @@
         <v>63605</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -6226,13 +6280,13 @@
         <v>52876</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="M12" s="7">
         <v>171</v>
@@ -6241,13 +6295,13 @@
         <v>116481</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>294</v>
+        <v>512</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6316,13 @@
         <v>71145</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>499</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="H13" s="7">
         <v>90</v>
@@ -6277,13 +6331,13 @@
         <v>57127</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
@@ -6292,13 +6346,13 @@
         <v>128272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6367,13 @@
         <v>79047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>509</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
@@ -6328,13 +6382,13 @@
         <v>59932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>512</v>
+        <v>435</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -6343,13 +6397,13 @@
         <v>138979</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,13 +6418,13 @@
         <v>256698</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>330</v>
@@ -6379,13 +6433,13 @@
         <v>209403</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>708</v>
@@ -6394,18 +6448,18 @@
         <v>466100</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6417,13 +6471,13 @@
         <v>13870</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>529</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -6432,13 +6486,13 @@
         <v>8297</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -6447,13 +6501,13 @@
         <v>22167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6522,13 @@
         <v>30096</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -6483,13 +6537,13 @@
         <v>37015</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -6498,13 +6552,13 @@
         <v>67112</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>33</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +6573,13 @@
         <v>49266</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -6534,13 +6588,13 @@
         <v>46490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>395</v>
+        <v>470</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="M18" s="7">
         <v>135</v>
@@ -6549,13 +6603,13 @@
         <v>95755</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,13 +6624,13 @@
         <v>39328</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -6585,13 +6639,13 @@
         <v>40280</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -6600,13 +6654,13 @@
         <v>79608</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>335</v>
+        <v>560</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,13 +6675,13 @@
         <v>56012</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>546</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>509</v>
+        <v>563</v>
       </c>
       <c r="H20" s="7">
         <v>77</v>
@@ -6636,13 +6690,13 @@
         <v>53443</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>256</v>
+        <v>564</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="M20" s="7">
         <v>155</v>
@@ -6651,13 +6705,13 @@
         <v>109456</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>358</v>
+        <v>568</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,13 +6726,13 @@
         <v>188572</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -6687,13 +6741,13 @@
         <v>185525</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>530</v>
@@ -6702,18 +6756,18 @@
         <v>374097</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6725,13 +6779,13 @@
         <v>16754</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -6740,13 +6794,13 @@
         <v>12364</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -6755,13 +6809,13 @@
         <v>29118</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>190</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6830,13 @@
         <v>31395</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="H23" s="7">
         <v>49</v>
@@ -6791,13 +6845,13 @@
         <v>34832</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>309</v>
+        <v>584</v>
       </c>
       <c r="M23" s="7">
         <v>92</v>
@@ -6806,13 +6860,13 @@
         <v>66227</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,13 +6881,13 @@
         <v>39439</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>568</v>
+        <v>72</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="H24" s="7">
         <v>71</v>
@@ -6842,13 +6896,13 @@
         <v>49303</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="M24" s="7">
         <v>125</v>
@@ -6857,13 +6911,13 @@
         <v>88742</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6932,13 @@
         <v>36661</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>501</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
@@ -6893,13 +6947,13 @@
         <v>33699</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>578</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>422</v>
+        <v>598</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>579</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -6908,13 +6962,13 @@
         <v>70360</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>581</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6983,13 @@
         <v>44724</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -6944,13 +6998,13 @@
         <v>41725</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>588</v>
+        <v>510</v>
       </c>
       <c r="M26" s="7">
         <v>118</v>
@@ -6959,13 +7013,13 @@
         <v>86449</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +7034,13 @@
         <v>168973</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>244</v>
@@ -6995,13 +7049,13 @@
         <v>171922</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>472</v>
@@ -7010,13 +7064,13 @@
         <v>340895</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +7087,13 @@
         <v>39285</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>65</v>
+        <v>609</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>20</v>
+        <v>610</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -7048,13 +7102,13 @@
         <v>28044</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>519</v>
+        <v>613</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -7063,13 +7117,13 @@
         <v>67330</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>596</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,13 +7138,13 @@
         <v>99721</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>598</v>
+        <v>402</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="H29" s="7">
         <v>161</v>
@@ -7099,13 +7153,13 @@
         <v>110368</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="M29" s="7">
         <v>303</v>
@@ -7114,13 +7168,13 @@
         <v>210089</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>605</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7189,13 @@
         <v>171854</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>318</v>
+        <v>622</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="H30" s="7">
         <v>238</v>
@@ -7150,13 +7204,13 @@
         <v>162233</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="M30" s="7">
         <v>483</v>
@@ -7165,13 +7219,13 @@
         <v>334087</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7240,13 @@
         <v>157484</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>397</v>
+        <v>633</v>
       </c>
       <c r="H31" s="7">
         <v>222</v>
@@ -7201,13 +7255,13 @@
         <v>145682</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>617</v>
+        <v>409</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="M31" s="7">
         <v>443</v>
@@ -7216,13 +7270,13 @@
         <v>303166</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>619</v>
+        <v>426</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>134</v>
+        <v>636</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7291,13 @@
         <v>224509</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>317</v>
+        <v>638</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="H32" s="7">
         <v>315</v>
@@ -7252,13 +7306,13 @@
         <v>206513</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="M32" s="7">
         <v>638</v>
@@ -7267,13 +7321,13 @@
         <v>431022</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,13 +7342,13 @@
         <v>692854</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>979</v>
@@ -7303,13 +7357,13 @@
         <v>652840</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>1967</v>
@@ -7318,13 +7372,13 @@
         <v>1345694</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP3102-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP3102-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71973133-5D36-49C0-AD5B-2A0C7DBA8E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{790A6011-98B8-4E7E-8B9B-206D1C6A54A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{29317627-D6A5-4E80-8894-4A4FD17322C3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8AA6FA1D-B5DB-4171-8DC5-EEE490B495F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="640">
   <si>
     <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2007 (Tasa respuesta: 93,2%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1909 +73,1891 @@
     <t>Menos de 1 vez semana</t>
   </si>
   <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>2,4%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
   </si>
   <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
     <t>12,11%</t>
   </si>
   <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>3 o 4 veces a la semana</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>5 o 6 veces a la semana</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>Todos los dias</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
     <t>6,96%</t>
   </si>
   <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2012 (Tasa respuesta: 91,52%)</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
     <t>19,25%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>3 o 4 veces a la semana</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>5 o 6 veces a la semana</t>
-  </si>
-  <si>
-    <t>25,72%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>Todos los dias</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2016 (Tasa respuesta: 92,52%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>24,69%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2012 (Tasa respuesta: 91,52%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>Menores según la frecuencia de tomar verdura o puré de verdura en 2016 (Tasa respuesta: 92,52%)</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
   </si>
   <si>
     <t>32,4%</t>
   </si>
   <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
+    <t>34,26%</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CFE86C-3F71-439B-9ACE-5C1B25E5BD14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD59FCD-E98D-4547-BB07-B27BFC461344}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2505,10 +2487,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>686</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2520,16 +2502,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2544,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -2556,10 +2538,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>9323</v>
+        <v>6135</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -2571,10 +2553,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>6135</v>
+        <v>9323</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -2607,10 +2589,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>24698</v>
+        <v>20353</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>29</v>
@@ -2622,10 +2604,10 @@
         <v>31</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I6" s="7">
-        <v>20353</v>
+        <v>24698</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
@@ -2658,10 +2640,10 @@
         <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>19799</v>
+        <v>16587</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -2673,10 +2655,10 @@
         <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>16587</v>
+        <v>19799</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>42</v>
@@ -2709,10 +2691,10 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>22486</v>
+        <v>23594</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -2724,19 +2706,19 @@
         <v>51</v>
       </c>
       <c r="H8" s="7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>23594</v>
+        <v>22486</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -2745,13 +2727,13 @@
         <v>46080</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,34 +2742,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>101</v>
+      </c>
+      <c r="D9" s="7">
+        <v>66669</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>116</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>76991</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7">
-        <v>101</v>
-      </c>
-      <c r="I9" s="7">
-        <v>66669</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>217</v>
@@ -2796,51 +2778,51 @@
         <v>143660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7">
+        <v>13011</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="7">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>8277</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>13011</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -2849,13 +2831,13 @@
         <v>21288</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,34 +2846,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7">
+        <v>36006</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="7">
         <v>72</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>47431</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="7">
-        <v>53</v>
-      </c>
-      <c r="I11" s="7">
-        <v>36006</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>125</v>
@@ -2900,13 +2882,13 @@
         <v>83437</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,34 +2897,34 @@
         <v>28</v>
       </c>
       <c r="C12" s="7">
+        <v>147</v>
+      </c>
+      <c r="D12" s="7">
+        <v>99429</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="7">
         <v>158</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>104750</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="7">
-        <v>147</v>
-      </c>
-      <c r="I12" s="7">
-        <v>99429</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>305</v>
@@ -2951,13 +2933,13 @@
         <v>204178</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,34 +2948,34 @@
         <v>38</v>
       </c>
       <c r="C13" s="7">
+        <v>99</v>
+      </c>
+      <c r="D13" s="7">
+        <v>66365</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="7">
         <v>90</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>60614</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="7">
-        <v>99</v>
-      </c>
-      <c r="I13" s="7">
-        <v>66365</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
@@ -3002,13 +2984,13 @@
         <v>126979</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,25 +2999,25 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>58</v>
+      </c>
+      <c r="D14" s="7">
+        <v>37087</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="7">
         <v>47</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>30635</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="7">
-        <v>58</v>
-      </c>
-      <c r="I14" s="7">
-        <v>37087</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>97</v>
@@ -3068,34 +3050,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>377</v>
+      </c>
+      <c r="D15" s="7">
+        <v>251898</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>379</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>251707</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7">
-        <v>377</v>
-      </c>
-      <c r="I15" s="7">
-        <v>251898</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>756</v>
@@ -3104,13 +3086,13 @@
         <v>503605</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3106,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>13864</v>
+        <v>13467</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>104</v>
@@ -3133,22 +3115,22 @@
         <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>13467</v>
+        <v>13864</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3157,13 +3139,13 @@
         <v>27331</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,34 +3154,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7">
+        <v>29731</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="7">
         <v>56</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>38081</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H17" s="7">
-        <v>43</v>
-      </c>
-      <c r="I17" s="7">
-        <v>29731</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -3208,13 +3190,13 @@
         <v>67811</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,34 +3205,34 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
+        <v>78</v>
+      </c>
+      <c r="D18" s="7">
+        <v>52327</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="7">
         <v>73</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>48291</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="7">
-        <v>78</v>
-      </c>
-      <c r="I18" s="7">
-        <v>52327</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>151</v>
@@ -3259,7 +3241,7 @@
         <v>100618</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>128</v>
@@ -3274,10 +3256,10 @@
         <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D19" s="7">
-        <v>25827</v>
+        <v>16633</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>130</v>
@@ -3289,10 +3271,10 @@
         <v>132</v>
       </c>
       <c r="H19" s="7">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>16633</v>
+        <v>25827</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>133</v>
@@ -3325,10 +3307,10 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" s="7">
-        <v>12539</v>
+        <v>13195</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>139</v>
@@ -3340,10 +3322,10 @@
         <v>141</v>
       </c>
       <c r="H20" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>13195</v>
+        <v>12539</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>142</v>
@@ -3376,34 +3358,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>188</v>
+      </c>
+      <c r="D21" s="7">
+        <v>125353</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>208</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>138601</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>188</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125353</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>396</v>
@@ -3412,13 +3394,13 @@
         <v>263953</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,10 +3411,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>20917</v>
+        <v>15382</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>149</v>
@@ -3444,10 +3426,10 @@
         <v>151</v>
       </c>
       <c r="H22" s="7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I22" s="7">
-        <v>15382</v>
+        <v>20917</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>152</v>
@@ -3480,10 +3462,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7">
-        <v>51568</v>
+        <v>39285</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>158</v>
@@ -3495,10 +3477,10 @@
         <v>160</v>
       </c>
       <c r="H23" s="7">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I23" s="7">
-        <v>39285</v>
+        <v>51568</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>161</v>
@@ -3531,10 +3513,10 @@
         <v>28</v>
       </c>
       <c r="C24" s="7">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D24" s="7">
-        <v>75481</v>
+        <v>74829</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>167</v>
@@ -3546,10 +3528,10 @@
         <v>169</v>
       </c>
       <c r="H24" s="7">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I24" s="7">
-        <v>74829</v>
+        <v>75481</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>170</v>
@@ -3582,10 +3564,10 @@
         <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D25" s="7">
-        <v>39201</v>
+        <v>48840</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>176</v>
@@ -3597,10 +3579,10 @@
         <v>178</v>
       </c>
       <c r="H25" s="7">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I25" s="7">
-        <v>48840</v>
+        <v>39201</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>179</v>
@@ -3621,10 +3603,10 @@
         <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,10 +3615,10 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D26" s="7">
-        <v>17755</v>
+        <v>14177</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>184</v>
@@ -3648,10 +3630,10 @@
         <v>186</v>
       </c>
       <c r="H26" s="7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I26" s="7">
-        <v>14177</v>
+        <v>17755</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>187</v>
@@ -3684,34 +3666,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>284</v>
+      </c>
+      <c r="D27" s="7">
+        <v>192513</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>308</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204922</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>284</v>
-      </c>
-      <c r="I27" s="7">
-        <v>192513</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>592</v>
@@ -3720,13 +3702,13 @@
         <v>397435</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,10 +3719,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="7">
-        <v>43743</v>
+        <v>41861</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>193</v>
@@ -3752,10 +3734,10 @@
         <v>195</v>
       </c>
       <c r="H28" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I28" s="7">
-        <v>41861</v>
+        <v>43743</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>196</v>
@@ -3788,10 +3770,10 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="D29" s="7">
-        <v>146403</v>
+        <v>111157</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>202</v>
@@ -3803,10 +3785,10 @@
         <v>204</v>
       </c>
       <c r="H29" s="7">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="I29" s="7">
-        <v>111157</v>
+        <v>146403</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>205</v>
@@ -3839,10 +3821,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="7">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D30" s="7">
-        <v>253220</v>
+        <v>246939</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>211</v>
@@ -3854,10 +3836,10 @@
         <v>213</v>
       </c>
       <c r="H30" s="7">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="I30" s="7">
-        <v>246939</v>
+        <v>253220</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>214</v>
@@ -3890,10 +3872,10 @@
         <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D31" s="7">
-        <v>145441</v>
+        <v>148424</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>220</v>
@@ -3905,10 +3887,10 @@
         <v>222</v>
       </c>
       <c r="H31" s="7">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I31" s="7">
-        <v>148424</v>
+        <v>145441</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>223</v>
@@ -3941,10 +3923,10 @@
         <v>48</v>
       </c>
       <c r="C32" s="7">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D32" s="7">
-        <v>83414</v>
+        <v>88053</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>229</v>
@@ -3953,22 +3935,22 @@
         <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="7">
+        <v>128</v>
+      </c>
+      <c r="I32" s="7">
+        <v>83414</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H32" s="7">
-        <v>138</v>
-      </c>
-      <c r="I32" s="7">
-        <v>88053</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>266</v>
@@ -3977,13 +3959,13 @@
         <v>171468</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,34 +3974,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>950</v>
+      </c>
+      <c r="D33" s="7">
+        <v>636433</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>1011</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>672221</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="7">
-        <v>950</v>
-      </c>
-      <c r="I33" s="7">
-        <v>636433</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>1961</v>
@@ -4028,18 +4010,18 @@
         <v>1308653</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4059,7 +4041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F68AC11-76A3-48D0-96D2-799B7DB5878A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C60E7A2-7196-436E-A882-5701F15DA5F5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4076,7 +4058,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4180,31 +4162,31 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>981</v>
+        <v>659</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>659</v>
+        <v>981</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4213,13 +4195,13 @@
         <v>1640</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,34 +4210,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9832</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="7">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>5665</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="7">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9832</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -4264,13 +4246,13 @@
         <v>15498</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,31 +4261,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>21282</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="7">
         <v>28</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>18616</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="7">
-        <v>32</v>
-      </c>
-      <c r="I6" s="7">
-        <v>21282</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>258</v>
@@ -4330,10 +4312,10 @@
         <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>16455</v>
+        <v>17544</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>262</v>
@@ -4345,10 +4327,10 @@
         <v>264</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>17544</v>
+        <v>16455</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>265</v>
@@ -4381,10 +4363,10 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7">
-        <v>46019</v>
+        <v>43204</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>271</v>
@@ -4396,10 +4378,10 @@
         <v>273</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I8" s="7">
-        <v>43204</v>
+        <v>46019</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>274</v>
@@ -4432,34 +4414,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>141</v>
+      </c>
+      <c r="D9" s="7">
+        <v>92521</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>126</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>87737</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7">
-        <v>141</v>
-      </c>
-      <c r="I9" s="7">
-        <v>92521</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>267</v>
@@ -4468,27 +4450,27 @@
         <v>180258</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>6478</v>
+        <v>3231</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>280</v>
@@ -4500,10 +4482,10 @@
         <v>282</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>3231</v>
+        <v>6478</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>283</v>
@@ -4527,7 +4509,7 @@
         <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>288</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,34 +4518,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7">
+        <v>41791</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="7">
         <v>63</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>44683</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H11" s="7">
-        <v>57</v>
-      </c>
-      <c r="I11" s="7">
-        <v>41791</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M11" s="7">
         <v>120</v>
@@ -4572,13 +4554,13 @@
         <v>86474</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,10 +4569,10 @@
         <v>28</v>
       </c>
       <c r="C12" s="7">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D12" s="7">
-        <v>83894</v>
+        <v>79482</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>297</v>
@@ -4602,10 +4584,10 @@
         <v>299</v>
       </c>
       <c r="H12" s="7">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I12" s="7">
-        <v>79482</v>
+        <v>83894</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>300</v>
@@ -4638,10 +4620,10 @@
         <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>56050</v>
+        <v>40713</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>306</v>
@@ -4653,10 +4635,10 @@
         <v>308</v>
       </c>
       <c r="H13" s="7">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7">
-        <v>40713</v>
+        <v>56050</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>309</v>
@@ -4665,7 +4647,7 @@
         <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>137</v>
@@ -4674,13 +4656,13 @@
         <v>96763</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,34 +4671,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>104</v>
+      </c>
+      <c r="D14" s="7">
+        <v>70329</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H14" s="7">
         <v>100</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>74965</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H14" s="7">
-        <v>104</v>
-      </c>
-      <c r="I14" s="7">
-        <v>70329</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M14" s="7">
         <v>204</v>
@@ -4725,13 +4707,13 @@
         <v>145294</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,34 +4722,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>339</v>
+      </c>
+      <c r="D15" s="7">
+        <v>235546</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>370</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>266070</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7">
-        <v>339</v>
-      </c>
-      <c r="I15" s="7">
-        <v>235546</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>709</v>
@@ -4776,13 +4758,13 @@
         <v>501616</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,34 +4775,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6028</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H16" s="7">
         <v>13</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>8794</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="H16" s="7">
-        <v>9</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6028</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -4829,13 +4811,13 @@
         <v>14822</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,34 +4826,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>52</v>
+      </c>
+      <c r="D17" s="7">
+        <v>35881</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H17" s="7">
         <v>69</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>48698</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H17" s="7">
-        <v>52</v>
-      </c>
-      <c r="I17" s="7">
-        <v>35881</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>121</v>
@@ -4880,13 +4862,13 @@
         <v>84579</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,34 +4877,34 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
+        <v>69</v>
+      </c>
+      <c r="D18" s="7">
+        <v>49232</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H18" s="7">
         <v>62</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>41632</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H18" s="7">
-        <v>69</v>
-      </c>
-      <c r="I18" s="7">
-        <v>49232</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -4931,13 +4913,13 @@
         <v>90864</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,34 +4928,34 @@
         <v>38</v>
       </c>
       <c r="C19" s="7">
+        <v>37</v>
+      </c>
+      <c r="D19" s="7">
+        <v>26177</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H19" s="7">
         <v>28</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>19300</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="H19" s="7">
-        <v>37</v>
-      </c>
-      <c r="I19" s="7">
-        <v>26177</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -4982,13 +4964,13 @@
         <v>45477</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,34 +4979,34 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
+        <v>55</v>
+      </c>
+      <c r="D20" s="7">
+        <v>39117</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H20" s="7">
         <v>52</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>37517</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="H20" s="7">
-        <v>55</v>
-      </c>
-      <c r="I20" s="7">
-        <v>39117</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M20" s="7">
         <v>107</v>
@@ -5033,13 +5015,13 @@
         <v>76634</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,34 +5030,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>222</v>
+      </c>
+      <c r="D21" s="7">
+        <v>156434</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>224</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>155941</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>222</v>
-      </c>
-      <c r="I21" s="7">
-        <v>156434</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>446</v>
@@ -5084,13 +5066,13 @@
         <v>312375</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,34 +5083,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>21</v>
+      </c>
+      <c r="D22" s="7">
+        <v>14133</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H22" s="7">
         <v>15</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>10174</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H22" s="7">
-        <v>21</v>
-      </c>
-      <c r="I22" s="7">
-        <v>14133</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -5137,13 +5119,13 @@
         <v>24307</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,34 +5134,34 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>53</v>
+      </c>
+      <c r="D23" s="7">
+        <v>37393</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H23" s="7">
         <v>77</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>52038</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="H23" s="7">
-        <v>53</v>
-      </c>
-      <c r="I23" s="7">
-        <v>37393</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M23" s="7">
         <v>130</v>
@@ -5188,13 +5170,13 @@
         <v>89431</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,34 +5185,34 @@
         <v>28</v>
       </c>
       <c r="C24" s="7">
+        <v>80</v>
+      </c>
+      <c r="D24" s="7">
+        <v>56594</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H24" s="7">
         <v>102</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>68439</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H24" s="7">
-        <v>80</v>
-      </c>
-      <c r="I24" s="7">
-        <v>56594</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M24" s="7">
         <v>182</v>
@@ -5239,13 +5221,13 @@
         <v>125033</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,34 +5236,34 @@
         <v>38</v>
       </c>
       <c r="C25" s="7">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7">
+        <v>27320</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H25" s="7">
         <v>34</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>23478</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="H25" s="7">
-        <v>38</v>
-      </c>
-      <c r="I25" s="7">
-        <v>27320</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -5290,13 +5272,13 @@
         <v>50798</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,49 +5287,49 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>48</v>
+      </c>
+      <c r="D26" s="7">
+        <v>33975</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H26" s="7">
         <v>31</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>21543</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="H26" s="7">
-        <v>48</v>
-      </c>
-      <c r="I26" s="7">
-        <v>33975</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M26" s="7">
         <v>79</v>
       </c>
       <c r="N26" s="7">
-        <v>55519</v>
+        <v>55518</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>409</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,49 +5338,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>240</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169415</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>259</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>175673</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>240</v>
-      </c>
-      <c r="I27" s="7">
-        <v>169415</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>499</v>
       </c>
       <c r="N27" s="7">
-        <v>345088</v>
+        <v>345087</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,34 +5391,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>36</v>
+      </c>
+      <c r="D28" s="7">
+        <v>24051</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H28" s="7">
         <v>39</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>26428</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H28" s="7">
-        <v>36</v>
-      </c>
-      <c r="I28" s="7">
-        <v>24051</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M28" s="7">
         <v>75</v>
@@ -5445,13 +5427,13 @@
         <v>50479</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,34 +5442,34 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
+        <v>177</v>
+      </c>
+      <c r="D29" s="7">
+        <v>124897</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H29" s="7">
         <v>217</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>151084</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H29" s="7">
-        <v>177</v>
-      </c>
-      <c r="I29" s="7">
-        <v>124897</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M29" s="7">
         <v>394</v>
@@ -5496,13 +5478,13 @@
         <v>275981</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,34 +5493,34 @@
         <v>28</v>
       </c>
       <c r="C30" s="7">
+        <v>295</v>
+      </c>
+      <c r="D30" s="7">
+        <v>206590</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H30" s="7">
         <v>311</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>212581</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H30" s="7">
-        <v>295</v>
-      </c>
-      <c r="I30" s="7">
-        <v>206590</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M30" s="7">
         <v>606</v>
@@ -5547,13 +5529,13 @@
         <v>419171</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>435</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,34 +5544,34 @@
         <v>38</v>
       </c>
       <c r="C31" s="7">
+        <v>162</v>
+      </c>
+      <c r="D31" s="7">
+        <v>111754</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H31" s="7">
         <v>165</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>115283</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H31" s="7">
-        <v>162</v>
-      </c>
-      <c r="I31" s="7">
-        <v>111754</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>440</v>
+        <v>236</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M31" s="7">
         <v>327</v>
@@ -5598,13 +5580,13 @@
         <v>227037</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,34 +5595,34 @@
         <v>48</v>
       </c>
       <c r="C32" s="7">
+        <v>272</v>
+      </c>
+      <c r="D32" s="7">
+        <v>186625</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H32" s="7">
         <v>247</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>180044</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H32" s="7">
-        <v>272</v>
-      </c>
-      <c r="I32" s="7">
-        <v>186625</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M32" s="7">
         <v>519</v>
@@ -5649,13 +5631,13 @@
         <v>366669</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,34 +5646,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>942</v>
+      </c>
+      <c r="D33" s="7">
+        <v>653916</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>979</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>685420</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="7">
-        <v>942</v>
-      </c>
-      <c r="I33" s="7">
-        <v>653916</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>1921</v>
@@ -5700,18 +5682,18 @@
         <v>1339337</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -5731,7 +5713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1556041-9650-4AF8-BECB-A289EF6DACDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C172700-017F-49BD-94CC-9202544FFB48}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5748,7 +5730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5849,34 +5831,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1344</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1344</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>454</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5885,13 +5867,13 @@
         <v>1344</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,34 +5882,34 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5093</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H5" s="7">
         <v>6</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>3991</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5093</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>462</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5936,13 +5918,13 @@
         <v>9084</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>464</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,34 +5933,34 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13564</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H6" s="7">
         <v>30</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>19545</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H6" s="7">
-        <v>22</v>
-      </c>
-      <c r="I6" s="7">
-        <v>13564</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>162</v>
+        <v>463</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>164</v>
+        <v>465</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -5987,13 +5969,13 @@
         <v>33109</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>466</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,34 +5984,34 @@
         <v>38</v>
       </c>
       <c r="C7" s="7">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7">
+        <v>14577</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H7" s="7">
         <v>15</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>10350</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="H7" s="7">
-        <v>25</v>
-      </c>
-      <c r="I7" s="7">
-        <v>14577</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -6038,13 +6020,13 @@
         <v>24927</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,34 +6035,34 @@
         <v>48</v>
       </c>
       <c r="C8" s="7">
+        <v>81</v>
+      </c>
+      <c r="D8" s="7">
+        <v>51413</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H8" s="7">
         <v>68</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>44726</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="H8" s="7">
-        <v>81</v>
-      </c>
-      <c r="I8" s="7">
-        <v>51413</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M8" s="7">
         <v>149</v>
@@ -6089,13 +6071,13 @@
         <v>96139</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,34 +6086,34 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>138</v>
+      </c>
+      <c r="D9" s="7">
+        <v>85991</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7">
         <v>119</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>78611</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7">
-        <v>138</v>
-      </c>
-      <c r="I9" s="7">
-        <v>85991</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>257</v>
@@ -6140,51 +6122,51 @@
         <v>164602</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6040</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H10" s="7">
         <v>14</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>8662</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6040</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -6193,13 +6175,13 @@
         <v>14701</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,34 +6190,34 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>52</v>
+      </c>
+      <c r="D11" s="7">
+        <v>33428</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H11" s="7">
         <v>51</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>34239</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="H11" s="7">
-        <v>52</v>
-      </c>
-      <c r="I11" s="7">
-        <v>33428</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M11" s="7">
         <v>103</v>
@@ -6244,13 +6226,13 @@
         <v>67667</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,34 +6241,34 @@
         <v>28</v>
       </c>
       <c r="C12" s="7">
+        <v>79</v>
+      </c>
+      <c r="D12" s="7">
+        <v>52876</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="H12" s="7">
         <v>92</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>63605</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="H12" s="7">
-        <v>79</v>
-      </c>
-      <c r="I12" s="7">
-        <v>52876</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>509</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>510</v>
+        <v>120</v>
       </c>
       <c r="M12" s="7">
         <v>171</v>
@@ -6295,13 +6277,13 @@
         <v>116481</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>511</v>
+        <v>315</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,34 +6292,34 @@
         <v>38</v>
       </c>
       <c r="C13" s="7">
+        <v>90</v>
+      </c>
+      <c r="D13" s="7">
+        <v>57127</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H13" s="7">
         <v>104</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>71145</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="H13" s="7">
-        <v>90</v>
-      </c>
-      <c r="I13" s="7">
-        <v>57127</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="M13" s="7">
         <v>194</v>
@@ -6346,13 +6328,13 @@
         <v>128272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>521</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,34 +6343,34 @@
         <v>48</v>
       </c>
       <c r="C14" s="7">
+        <v>99</v>
+      </c>
+      <c r="D14" s="7">
+        <v>59932</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H14" s="7">
         <v>117</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>79047</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H14" s="7">
-        <v>99</v>
-      </c>
-      <c r="I14" s="7">
-        <v>59932</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -6397,13 +6379,13 @@
         <v>138979</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,34 +6394,34 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>330</v>
+      </c>
+      <c r="D15" s="7">
+        <v>209403</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="7">
         <v>378</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>256698</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="7">
-        <v>330</v>
-      </c>
-      <c r="I15" s="7">
-        <v>209403</v>
-      </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>708</v>
@@ -6448,13 +6430,13 @@
         <v>466100</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,34 +6447,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8297</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="H16" s="7">
         <v>20</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>13870</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="H16" s="7">
-        <v>13</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8297</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>533</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -6501,13 +6483,13 @@
         <v>22167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>536</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,34 +6498,34 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
+        <v>52</v>
+      </c>
+      <c r="D17" s="7">
+        <v>37015</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="H17" s="7">
         <v>42</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>30096</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="H17" s="7">
-        <v>52</v>
-      </c>
-      <c r="I17" s="7">
-        <v>37015</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>539</v>
+        <v>493</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -6552,13 +6534,13 @@
         <v>67112</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,34 +6549,34 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
+        <v>66</v>
+      </c>
+      <c r="D18" s="7">
+        <v>46490</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="H18" s="7">
         <v>69</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>49266</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="H18" s="7">
-        <v>66</v>
-      </c>
-      <c r="I18" s="7">
-        <v>46490</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M18" s="7">
         <v>135</v>
@@ -6603,13 +6585,13 @@
         <v>95755</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>550</v>
+        <v>36</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,34 +6600,34 @@
         <v>38</v>
       </c>
       <c r="C19" s="7">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7">
+        <v>40280</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H19" s="7">
         <v>54</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>39328</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="H19" s="7">
-        <v>59</v>
-      </c>
-      <c r="I19" s="7">
-        <v>40280</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>557</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="M19" s="7">
         <v>113</v>
@@ -6654,13 +6636,13 @@
         <v>79608</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,34 +6651,34 @@
         <v>48</v>
       </c>
       <c r="C20" s="7">
+        <v>77</v>
+      </c>
+      <c r="D20" s="7">
+        <v>53443</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H20" s="7">
         <v>78</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>56012</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="H20" s="7">
-        <v>77</v>
-      </c>
-      <c r="I20" s="7">
-        <v>53443</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="M20" s="7">
         <v>155</v>
@@ -6705,13 +6687,13 @@
         <v>109456</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>569</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,34 +6702,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185525</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="7">
         <v>263</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>188572</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185525</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>530</v>
@@ -6756,13 +6738,13 @@
         <v>374097</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,34 +6755,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>18</v>
+      </c>
+      <c r="D22" s="7">
+        <v>12364</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="H22" s="7">
         <v>23</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>16754</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="H22" s="7">
-        <v>18</v>
-      </c>
-      <c r="I22" s="7">
-        <v>12364</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -6809,13 +6791,13 @@
         <v>29118</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,34 +6806,34 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
+        <v>49</v>
+      </c>
+      <c r="D23" s="7">
+        <v>34832</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="H23" s="7">
         <v>43</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>31395</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="H23" s="7">
-        <v>49</v>
-      </c>
-      <c r="I23" s="7">
-        <v>34832</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>583</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="M23" s="7">
         <v>92</v>
@@ -6860,13 +6842,13 @@
         <v>66227</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,34 +6857,34 @@
         <v>28</v>
       </c>
       <c r="C24" s="7">
+        <v>71</v>
+      </c>
+      <c r="D24" s="7">
+        <v>49303</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="H24" s="7">
         <v>54</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>39439</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="H24" s="7">
-        <v>71</v>
-      </c>
-      <c r="I24" s="7">
-        <v>49303</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="M24" s="7">
         <v>125</v>
@@ -6911,13 +6893,13 @@
         <v>88742</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,31 +6911,31 @@
         <v>48</v>
       </c>
       <c r="D25" s="7">
-        <v>36661</v>
+        <v>33699</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>590</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
       </c>
       <c r="I25" s="7">
-        <v>33699</v>
+        <v>36661</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>591</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>593</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -6962,13 +6944,13 @@
         <v>70360</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>307</v>
+        <v>595</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>561</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,34 +6959,34 @@
         <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>58</v>
+      </c>
+      <c r="D26" s="7">
+        <v>41725</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="H26" s="7">
         <v>60</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>44724</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="H26" s="7">
-        <v>58</v>
-      </c>
-      <c r="I26" s="7">
-        <v>41725</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="M26" s="7">
         <v>118</v>
@@ -7013,13 +6995,13 @@
         <v>86449</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7028,34 +7010,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>244</v>
+      </c>
+      <c r="D27" s="7">
+        <v>171922</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="7">
         <v>228</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>168973</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="7">
-        <v>244</v>
-      </c>
-      <c r="I27" s="7">
-        <v>171922</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>472</v>
@@ -7064,13 +7046,13 @@
         <v>340895</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,34 +7063,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D28" s="7">
+        <v>28044</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="H28" s="7">
+        <v>57</v>
+      </c>
+      <c r="I28" s="7">
         <v>39285</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="H28" s="7">
-        <v>43</v>
-      </c>
-      <c r="I28" s="7">
-        <v>28044</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="M28" s="7">
         <v>100</v>
@@ -7117,13 +7099,13 @@
         <v>67330</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>611</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>461</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,34 +7114,34 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D29" s="7">
-        <v>99721</v>
+        <v>110368</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>616</v>
       </c>
       <c r="H29" s="7">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="I29" s="7">
-        <v>110368</v>
+        <v>99721</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>619</v>
       </c>
       <c r="M29" s="7">
         <v>303</v>
@@ -7168,13 +7150,13 @@
         <v>210089</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,10 +7165,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="7">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D30" s="7">
-        <v>171854</v>
+        <v>162233</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>622</v>
@@ -7198,19 +7180,19 @@
         <v>624</v>
       </c>
       <c r="H30" s="7">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="I30" s="7">
-        <v>162233</v>
+        <v>171854</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>625</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>626</v>
+        <v>259</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>627</v>
+        <v>512</v>
       </c>
       <c r="M30" s="7">
         <v>483</v>
@@ -7219,13 +7201,13 @@
         <v>334087</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>629</v>
+        <v>332</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,34 +7216,34 @@
         <v>38</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>145682</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="H31" s="7">
         <v>221</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>157484</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="H31" s="7">
-        <v>222</v>
-      </c>
-      <c r="I31" s="7">
-        <v>145682</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>634</v>
+        <v>580</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>409</v>
+        <v>629</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="M31" s="7">
         <v>443</v>
@@ -7270,13 +7252,13 @@
         <v>303166</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>426</v>
+        <v>631</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>509</v>
+        <v>364</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>636</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,34 +7267,34 @@
         <v>48</v>
       </c>
       <c r="C32" s="7">
+        <v>315</v>
+      </c>
+      <c r="D32" s="7">
+        <v>206513</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="H32" s="7">
         <v>323</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>224509</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="H32" s="7">
-        <v>315</v>
-      </c>
-      <c r="I32" s="7">
-        <v>206513</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="M32" s="7">
         <v>638</v>
@@ -7321,13 +7303,13 @@
         <v>431022</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>644</v>
+        <v>362</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,34 +7318,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>979</v>
+      </c>
+      <c r="D33" s="7">
+        <v>652840</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="7">
         <v>988</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>692854</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="7">
-        <v>979</v>
-      </c>
-      <c r="I33" s="7">
-        <v>652840</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>1967</v>
@@ -7372,18 +7354,18 @@
         <v>1345694</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
